--- a/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
+++ b/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09980B-5E37-4337-9ED8-4B4F9FF13740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,13 +111,17 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,9 +223,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -685,6 +688,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -707,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
